--- a/grupos/1FM - Estadisticos 20211.xlsx
+++ b/grupos/1FM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -155,22 +155,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Ochoa Martínez Mayeli</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Ochoa Martínez Mayeli</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
     <t>Moreno Arollo Anél</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
     <t>NC</t>
@@ -863,10 +863,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -917,10 +917,10 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -940,19 +940,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -994,19 +994,19 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -1029,7 +1029,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1071,10 +1071,10 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V6">
         <v>-1</v>
@@ -1083,7 +1083,7 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1094,19 +1094,19 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1148,19 +1148,19 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <v>6</v>
@@ -1171,19 +1171,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1225,19 +1225,19 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y8">
         <v>6</v>
@@ -1248,19 +1248,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1302,19 +1302,19 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y9">
         <v>6</v>
@@ -1325,19 +1325,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1379,19 +1379,19 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V10">
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y10">
         <v>9</v>
@@ -1402,10 +1402,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1414,7 +1414,7 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1456,10 +1456,10 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1468,7 +1468,7 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y11">
         <v>6</v>
@@ -1479,19 +1479,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1533,19 +1533,19 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>7</v>
@@ -1556,19 +1556,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1610,19 +1610,19 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1687,19 +1687,19 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V14">
         <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y14">
         <v>6</v>
@@ -1710,19 +1710,19 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>-1</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1764,19 +1764,19 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V15">
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>6</v>
@@ -1787,19 +1787,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1841,19 +1841,19 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y16">
         <v>6</v>
@@ -1864,19 +1864,19 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1918,19 +1918,19 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y17">
         <v>6</v>
@@ -1941,19 +1941,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1995,19 +1995,19 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -2018,19 +2018,19 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -2072,19 +2072,19 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y19">
         <v>6</v>
@@ -2095,22 +2095,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>-1</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2149,22 +2149,22 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2172,19 +2172,19 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -2226,19 +2226,19 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y21">
         <v>7</v>
@@ -2249,19 +2249,19 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2303,19 +2303,19 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y22">
         <v>6</v>
@@ -2326,19 +2326,19 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -2380,19 +2380,19 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y23">
         <v>7</v>
@@ -2403,19 +2403,19 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -2457,19 +2457,19 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y24">
         <v>8</v>
@@ -2480,10 +2480,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2492,7 +2492,7 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -2534,10 +2534,10 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V25">
         <v>-1</v>
@@ -2546,7 +2546,7 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y25">
         <v>7</v>
@@ -2557,19 +2557,19 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -2611,19 +2611,19 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>6</v>
@@ -2634,19 +2634,19 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -2688,19 +2688,19 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y27">
         <v>9</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -2771,27 +2771,30 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.7</v>
+      </c>
       <c r="I2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -2800,22 +2803,25 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.800000000000001</v>
+      </c>
       <c r="I3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2829,27 +2835,30 @@
         <v>24</v>
       </c>
       <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>87.5</v>
+      </c>
+      <c r="G4">
+        <v>12.5</v>
+      </c>
+      <c r="H4">
+        <v>7.1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2858,22 +2867,25 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>6.7</v>
+      </c>
       <c r="I5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2887,27 +2899,30 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>95.83</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>7.3</v>
+      </c>
       <c r="I6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2916,25 +2931,25 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +3006,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3011,7 +3026,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3051,7 +3066,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3071,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3111,7 +3126,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3131,7 +3146,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3171,7 +3186,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3191,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3231,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3251,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3291,7 +3306,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3311,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3351,7 +3366,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3371,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3411,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3431,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3471,7 +3486,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3491,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3531,7 +3546,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3551,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3591,7 +3606,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3611,7 +3626,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3651,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3671,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3711,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3731,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3771,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3791,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3831,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3851,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3891,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3911,7 +3926,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3951,7 +3966,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3971,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4011,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4031,7 +4046,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4071,7 +4086,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4091,7 +4106,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4131,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4151,7 +4166,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4191,7 +4206,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4211,7 +4226,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4251,7 +4266,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4271,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4311,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4331,7 +4346,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4371,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4391,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4431,7 +4446,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4451,7 +4466,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4491,7 +4506,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4511,7 +4526,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4551,7 +4566,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4571,7 +4586,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4611,7 +4626,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4631,7 +4646,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4671,7 +4686,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4691,7 +4706,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4731,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4751,7 +4766,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4791,7 +4806,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4811,7 +4826,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4851,7 +4866,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4871,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4911,7 +4926,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4931,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4971,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4991,7 +5006,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5031,7 +5046,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5051,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5091,7 +5106,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5111,7 +5126,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5151,7 +5166,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5171,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5211,7 +5226,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5231,7 +5246,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5271,7 +5286,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5291,7 +5306,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5331,7 +5346,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5351,7 +5366,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5391,7 +5406,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5411,7 +5426,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5451,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5471,7 +5486,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5511,7 +5526,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5531,7 +5546,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5571,7 +5586,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5591,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5631,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5651,7 +5666,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5691,7 +5706,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5711,7 +5726,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5751,7 +5766,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5771,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5811,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5831,7 +5846,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6303,7 +6318,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6336,6 +6351,190 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920338</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920347</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920350</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920353</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/1FM - Estadisticos 20211.xlsx
+++ b/grupos/1FM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -191,6 +191,63 @@
     <t>AVELLEIRA</t>
   </si>
   <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>CRISTOPHER</t>
+  </si>
+  <si>
+    <t>JONATHAN MOISES</t>
+  </si>
+  <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
+    <t>NOEMI</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -203,12 +260,6 @@
     <t>CAMPOS</t>
   </si>
   <si>
-    <t>FRANCO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GARAY</t>
   </si>
   <si>
@@ -218,9 +269,6 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
@@ -230,9 +278,6 @@
     <t>LUNA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>PLIEGO</t>
   </si>
   <si>
@@ -242,21 +287,9 @@
     <t>RICO</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
     <t>XOCUA</t>
   </si>
   <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
     <t>BAUTISTA</t>
   </si>
   <si>
@@ -266,9 +299,6 @@
     <t>ARIAS</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
     <t>DELGADO</t>
   </si>
   <si>
@@ -281,9 +311,6 @@
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
     <t>VELASCO</t>
   </si>
   <si>
@@ -296,21 +323,9 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
     <t>DEBORA GEORGINA</t>
   </si>
   <si>
@@ -323,9 +338,6 @@
     <t>YAIR DAVID</t>
   </si>
   <si>
-    <t>CRISTOPHER</t>
-  </si>
-  <si>
     <t>CRISTINA KARELY</t>
   </si>
   <si>
@@ -338,9 +350,6 @@
     <t>CRISTIAN MANUEL</t>
   </si>
   <si>
-    <t>JONATHAN MOISES</t>
-  </si>
-  <si>
     <t>ROBERTO</t>
   </si>
   <si>
@@ -353,9 +362,6 @@
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
     <t>LUZ AMELY</t>
   </si>
   <si>
@@ -366,12 +372,6 @@
   </si>
   <si>
     <t>AMIR ALONSO</t>
-  </si>
-  <si>
-    <t>NOEMI</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
   </si>
   <si>
     <t>PAULA MARIA</t>
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1385,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W10">
         <v>9</v>
@@ -1639,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -1693,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W14">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -2386,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W23">
         <v>10</v>
@@ -2486,7 +2486,7 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>-1</v>
@@ -2540,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2771,25 +2771,25 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>41.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2959,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2997,10 +2997,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3017,10 +3017,10 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3037,16 +3037,16 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3057,56 +3057,56 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21330051920331</v>
+        <v>21330051920332</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920331</v>
+        <v>21330051920332</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3117,2756 +3117,136 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920332</v>
+        <v>21330051920337</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920332</v>
+        <v>21330051920337</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920332</v>
+        <v>21330051920342</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920332</v>
+        <v>21330051920347</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920332</v>
+        <v>21330051920352</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920333</v>
+        <v>21330051920353</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>21330051920333</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>21330051920333</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>21330051920333</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>21330051920333</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>21330051920333</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>21330051920334</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>21330051920334</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>21330051920334</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>21330051920334</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>21330051920334</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>21330051920334</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>21330051920335</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>21330051920335</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>21330051920335</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>21330051920335</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>21330051920335</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>21330051920335</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>21330051920336</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>21330051920336</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>21330051920336</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>21330051920336</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>21330051920336</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>21330051920336</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>21330051920337</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>21330051920337</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>21330051920337</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>21330051920337</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>21330051920337</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>21330051920337</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>21330051920338</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>21330051920338</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>21330051920338</v>
-      </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>21330051920338</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>21330051920338</v>
-      </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>21330051920338</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>21330051920339</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>21330051920339</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>21330051920339</v>
-      </c>
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>21330051920339</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>21330051920339</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>21330051920339</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>21330051920340</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>21330051920340</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>21330051920340</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>21330051920340</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>21330051920340</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>21330051920340</v>
-      </c>
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>21330051920341</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>21330051920341</v>
-      </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>21330051920341</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>21330051920341</v>
-      </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>21330051920341</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>21330051920341</v>
-      </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>21330051920342</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>21330051920342</v>
-      </c>
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>21330051920342</v>
-      </c>
-      <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>21330051920342</v>
-      </c>
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>21330051920342</v>
-      </c>
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>21330051920342</v>
-      </c>
-      <c r="B73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>21330051920343</v>
-      </c>
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>21330051920343</v>
-      </c>
-      <c r="B75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>21330051920343</v>
-      </c>
-      <c r="B76" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>21330051920343</v>
-      </c>
-      <c r="B77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920343</v>
-      </c>
-      <c r="B78" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920343</v>
-      </c>
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920344</v>
-      </c>
-      <c r="B80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920344</v>
-      </c>
-      <c r="B81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920344</v>
-      </c>
-      <c r="B82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920344</v>
-      </c>
-      <c r="B83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920344</v>
-      </c>
-      <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920344</v>
-      </c>
-      <c r="B85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920345</v>
-      </c>
-      <c r="B86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920345</v>
-      </c>
-      <c r="B87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920345</v>
-      </c>
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920345</v>
-      </c>
-      <c r="B89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920345</v>
-      </c>
-      <c r="B90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920345</v>
-      </c>
-      <c r="B91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920346</v>
-      </c>
-      <c r="B92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920346</v>
-      </c>
-      <c r="B93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920346</v>
-      </c>
-      <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920346</v>
-      </c>
-      <c r="B95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920346</v>
-      </c>
-      <c r="B96" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" t="s">
-        <v>110</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920346</v>
-      </c>
-      <c r="B97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" t="s">
-        <v>110</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920347</v>
-      </c>
-      <c r="B98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C98" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920347</v>
-      </c>
-      <c r="B99" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920347</v>
-      </c>
-      <c r="B100" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920347</v>
-      </c>
-      <c r="B101" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920347</v>
-      </c>
-      <c r="B102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920347</v>
-      </c>
-      <c r="B103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" t="s">
-        <v>111</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920348</v>
-      </c>
-      <c r="B104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" t="s">
-        <v>88</v>
-      </c>
-      <c r="D104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920348</v>
-      </c>
-      <c r="B105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" t="s">
-        <v>112</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920348</v>
-      </c>
-      <c r="B106" t="s">
-        <v>70</v>
-      </c>
-      <c r="C106" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" t="s">
-        <v>112</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920348</v>
-      </c>
-      <c r="B107" t="s">
-        <v>70</v>
-      </c>
-      <c r="C107" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920348</v>
-      </c>
-      <c r="B108" t="s">
-        <v>70</v>
-      </c>
-      <c r="C108" t="s">
-        <v>88</v>
-      </c>
-      <c r="D108" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920348</v>
-      </c>
-      <c r="B109" t="s">
-        <v>70</v>
-      </c>
-      <c r="C109" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>21330051920349</v>
-      </c>
-      <c r="B110" t="s">
-        <v>71</v>
-      </c>
-      <c r="C110" t="s">
-        <v>89</v>
-      </c>
-      <c r="D110" t="s">
-        <v>113</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>21330051920349</v>
-      </c>
-      <c r="B111" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" t="s">
-        <v>89</v>
-      </c>
-      <c r="D111" t="s">
-        <v>113</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>21330051920349</v>
-      </c>
-      <c r="B112" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" t="s">
-        <v>89</v>
-      </c>
-      <c r="D112" t="s">
-        <v>113</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>21330051920349</v>
-      </c>
-      <c r="B113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>21330051920349</v>
-      </c>
-      <c r="B114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" t="s">
-        <v>89</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>21330051920349</v>
-      </c>
-      <c r="B115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>21330051920350</v>
-      </c>
-      <c r="B116" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" t="s">
-        <v>90</v>
-      </c>
-      <c r="D116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>21330051920350</v>
-      </c>
-      <c r="B117" t="s">
-        <v>72</v>
-      </c>
-      <c r="C117" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" t="s">
-        <v>114</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>21330051920350</v>
-      </c>
-      <c r="B118" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" t="s">
-        <v>114</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>21330051920350</v>
-      </c>
-      <c r="B119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" t="s">
-        <v>90</v>
-      </c>
-      <c r="D119" t="s">
-        <v>114</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>21330051920350</v>
-      </c>
-      <c r="B120" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>21330051920350</v>
-      </c>
-      <c r="B121" t="s">
-        <v>72</v>
-      </c>
-      <c r="C121" t="s">
-        <v>90</v>
-      </c>
-      <c r="D121" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>21330051920351</v>
-      </c>
-      <c r="B122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C122" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" t="s">
-        <v>115</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>21330051920351</v>
-      </c>
-      <c r="B123" t="s">
-        <v>73</v>
-      </c>
-      <c r="C123" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" t="s">
-        <v>115</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>21330051920351</v>
-      </c>
-      <c r="B124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>21330051920351</v>
-      </c>
-      <c r="B125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>21330051920351</v>
-      </c>
-      <c r="B126" t="s">
-        <v>73</v>
-      </c>
-      <c r="C126" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>21330051920351</v>
-      </c>
-      <c r="B127" t="s">
-        <v>73</v>
-      </c>
-      <c r="C127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920352</v>
-      </c>
-      <c r="B128" t="s">
-        <v>74</v>
-      </c>
-      <c r="C128" t="s">
-        <v>92</v>
-      </c>
-      <c r="D128" t="s">
-        <v>116</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920352</v>
-      </c>
-      <c r="B129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129" t="s">
-        <v>92</v>
-      </c>
-      <c r="D129" t="s">
-        <v>116</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920352</v>
-      </c>
-      <c r="B130" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130" t="s">
-        <v>92</v>
-      </c>
-      <c r="D130" t="s">
-        <v>116</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920352</v>
-      </c>
-      <c r="B131" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" t="s">
-        <v>116</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920352</v>
-      </c>
-      <c r="B132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132" t="s">
-        <v>92</v>
-      </c>
-      <c r="D132" t="s">
-        <v>116</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920352</v>
-      </c>
-      <c r="B133" t="s">
-        <v>74</v>
-      </c>
-      <c r="C133" t="s">
-        <v>92</v>
-      </c>
-      <c r="D133" t="s">
-        <v>116</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920353</v>
-      </c>
-      <c r="B134" t="s">
-        <v>75</v>
-      </c>
-      <c r="C134" t="s">
-        <v>93</v>
-      </c>
-      <c r="D134" t="s">
-        <v>117</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920353</v>
-      </c>
-      <c r="B135" t="s">
-        <v>75</v>
-      </c>
-      <c r="C135" t="s">
-        <v>93</v>
-      </c>
-      <c r="D135" t="s">
-        <v>117</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920353</v>
-      </c>
-      <c r="B136" t="s">
-        <v>75</v>
-      </c>
-      <c r="C136" t="s">
-        <v>93</v>
-      </c>
-      <c r="D136" t="s">
-        <v>117</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920353</v>
-      </c>
-      <c r="B137" t="s">
-        <v>75</v>
-      </c>
-      <c r="C137" t="s">
-        <v>93</v>
-      </c>
-      <c r="D137" t="s">
-        <v>117</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920353</v>
-      </c>
-      <c r="B138" t="s">
-        <v>75</v>
-      </c>
-      <c r="C138" t="s">
-        <v>93</v>
-      </c>
-      <c r="D138" t="s">
-        <v>117</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920353</v>
-      </c>
-      <c r="B139" t="s">
-        <v>75</v>
-      </c>
-      <c r="C139" t="s">
-        <v>93</v>
-      </c>
-      <c r="D139" t="s">
-        <v>117</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920354</v>
-      </c>
-      <c r="B140" t="s">
-        <v>76</v>
-      </c>
-      <c r="C140" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" t="s">
-        <v>118</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920354</v>
-      </c>
-      <c r="B141" t="s">
-        <v>76</v>
-      </c>
-      <c r="C141" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>21330051920354</v>
-      </c>
-      <c r="B142" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" t="s">
-        <v>94</v>
-      </c>
-      <c r="D142" t="s">
-        <v>118</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>21330051920354</v>
-      </c>
-      <c r="B143" t="s">
-        <v>76</v>
-      </c>
-      <c r="C143" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>21330051920354</v>
-      </c>
-      <c r="B144" t="s">
-        <v>76</v>
-      </c>
-      <c r="C144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D144" t="s">
-        <v>118</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>21330051920354</v>
-      </c>
-      <c r="B145" t="s">
-        <v>76</v>
-      </c>
-      <c r="C145" t="s">
-        <v>94</v>
-      </c>
-      <c r="D145" t="s">
-        <v>118</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5911,13 +3291,13 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5928,370 +3308,370 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920333</v>
+        <v>21330051920337</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920334</v>
+        <v>21330051920342</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920335</v>
+        <v>21330051920347</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920336</v>
+        <v>21330051920352</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920337</v>
+        <v>21330051920353</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920338</v>
+        <v>21330051920333</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920339</v>
+        <v>21330051920334</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>103</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920340</v>
+        <v>21330051920335</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920341</v>
+        <v>21330051920336</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>105</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920342</v>
+        <v>21330051920338</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920343</v>
+        <v>21330051920339</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>107</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920344</v>
+        <v>21330051920340</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>108</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920345</v>
+        <v>21330051920341</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920346</v>
+        <v>21330051920343</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920347</v>
+        <v>21330051920344</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>111</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920348</v>
+        <v>21330051920345</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>112</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920349</v>
+        <v>21330051920346</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>113</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920350</v>
+        <v>21330051920348</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920351</v>
+        <v>21330051920349</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>115</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920352</v>
+        <v>21330051920350</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920353</v>
+        <v>21330051920351</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>117</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6299,16 +3679,16 @@
         <v>21330051920354</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>118</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +3698,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6353,16 +3733,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920352</v>
+        <v>21330051920342</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -6376,22 +3756,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920352</v>
+        <v>21330051920347</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6399,22 +3779,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920338</v>
+        <v>21330051920352</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6422,16 +3802,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920341</v>
+        <v>21330051920353</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -6440,98 +3820,6 @@
         <v>45</v>
       </c>
       <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>21330051920342</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>21330051920347</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>21330051920350</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>21330051920353</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/1FM - Estadisticos 20211.xlsx
+++ b/grupos/1FM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -197,169 +197,169 @@
     <t>HUERTA</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>CRISTOPHER</t>
+  </si>
+  <si>
+    <t>JONATHAN MOISES</t>
+  </si>
+  <si>
+    <t>NOEMI</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>GARAY</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
+    <t>PLIEGO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>CRISTOPHER</t>
-  </si>
-  <si>
-    <t>JONATHAN MOISES</t>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>HIPOLITO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>DEBORA GEORGINA</t>
+  </si>
+  <si>
+    <t>JOSUE EDUARDO</t>
+  </si>
+  <si>
+    <t>NAHOMI ITZAYANA</t>
+  </si>
+  <si>
+    <t>YAIR DAVID</t>
+  </si>
+  <si>
+    <t>CRISTINA KARELY</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>DARLET VICTORIA</t>
+  </si>
+  <si>
+    <t>CRISTIAN MANUEL</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>JOSELIN</t>
+  </si>
+  <si>
+    <t>JOCELIN</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
   </si>
   <si>
     <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
-    <t>NOEMI</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>GARAY</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>PLIEGO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>DELGADO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>HIPOLITO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>DEBORA GEORGINA</t>
-  </si>
-  <si>
-    <t>JOSUE EDUARDO</t>
-  </si>
-  <si>
-    <t>NAHOMI ITZAYANA</t>
-  </si>
-  <si>
-    <t>YAIR DAVID</t>
-  </si>
-  <si>
-    <t>CRISTINA KARELY</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>DARLET VICTORIA</t>
-  </si>
-  <si>
-    <t>CRISTIAN MANUEL</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>JOSELIN</t>
-  </si>
-  <si>
-    <t>JOCELIN</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
   </si>
   <si>
     <t>LUZ AMELY</t>
@@ -2101,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W20">
         <v>6</v>
@@ -2771,25 +2771,25 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>79.17</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2959,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2997,10 +2997,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3017,10 +3017,10 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3037,10 +3037,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -3057,10 +3057,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3077,10 +3077,10 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -3097,10 +3097,10 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3117,10 +3117,10 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -3137,10 +3137,10 @@
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3157,10 +3157,10 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3177,10 +3177,10 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3191,61 +3191,41 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920347</v>
+        <v>21330051920352</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>21330051920353</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3291,10 +3271,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3308,10 +3288,10 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -3325,10 +3305,10 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3342,10 +3322,10 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3353,16 +3333,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920347</v>
+        <v>21330051920352</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3370,16 +3350,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3387,30 +3367,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920353</v>
+        <v>21330051920333</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920333</v>
+        <v>21330051920334</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
@@ -3421,13 +3401,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920334</v>
+        <v>21330051920335</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>103</v>
@@ -3438,13 +3418,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920335</v>
+        <v>21330051920336</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
@@ -3455,13 +3435,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920336</v>
+        <v>21330051920338</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>105</v>
@@ -3472,13 +3452,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920338</v>
+        <v>21330051920339</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -3489,13 +3469,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920339</v>
+        <v>21330051920340</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>107</v>
@@ -3506,13 +3486,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>108</v>
@@ -3523,13 +3503,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920341</v>
+        <v>21330051920343</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -3540,13 +3520,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -3557,13 +3537,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>111</v>
@@ -3574,13 +3554,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>112</v>
@@ -3591,13 +3571,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
         <v>113</v>
@@ -3611,10 +3591,10 @@
         <v>21330051920348</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
@@ -3628,10 +3608,10 @@
         <v>21330051920349</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
         <v>115</v>
@@ -3645,10 +3625,10 @@
         <v>21330051920350</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
@@ -3662,10 +3642,10 @@
         <v>21330051920351</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>117</v>
@@ -3679,10 +3659,10 @@
         <v>21330051920354</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
         <v>118</v>
@@ -3698,7 +3678,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3739,10 +3719,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3756,22 +3736,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920347</v>
+        <v>21330051920352</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -3779,47 +3759,24 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>21330051920353</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5">
         <v>-1</v>
       </c>
     </row>
